--- a/documents/KVT_Pre-Sale_Referrer_Prospect_List.xlsx
+++ b/documents/KVT_Pre-Sale_Referrer_Prospect_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD418F-46A4-45DB-BD72-215607CF4876}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D95776-D33F-4F99-8BB6-FDE616158BCD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13508" xr2:uid="{60E0D4E9-A2E9-42DB-AD18-FA3513A2809A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>First Name</t>
   </si>
@@ -50,12 +50,36 @@
   <si>
     <t>0755451358</t>
   </si>
+  <si>
+    <t>Kinesis Velocity Token (KVT) Pre-Sale Referrer Prospect List.</t>
+  </si>
+  <si>
+    <t>The table below must be completed with the details of those individuals / corporate entities who you will be referring to the Kinesis Velocity Token pre-sale.</t>
+  </si>
+  <si>
+    <t>Contact sales@kinesis.money should you have any queries.</t>
+  </si>
+  <si>
+    <t>Referrer Name</t>
+  </si>
+  <si>
+    <t>Referrer Email</t>
+  </si>
+  <si>
+    <t>Referrer Phone</t>
+  </si>
+  <si>
+    <t>Referrer Organization</t>
+  </si>
+  <si>
+    <t>In order for an entry in the table to be accepted, both the "First Name" and "Last Name" fields must be completed, and either the "Email" field or "Phone" field (or both) must be completed. If both of the "Email" and "Phone" fields are left blank in a row, that row will not be accepted. If either of the "First Name" or the "Last Name" fields are left blank in a row, that row will not be accepted. If you are referring a corporate entity, complete the primary contacts details in the row.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +124,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +158,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -157,25 +201,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -201,6 +329,24 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -395,8 +541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96E785F4-11DB-4C27-BDAC-C380A386AF23}" name="Table1" displayName="Table1" ref="A1:D200" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D200" xr:uid="{7E64A17B-DD19-41A2-A532-FEC5D64D35B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96E785F4-11DB-4C27-BDAC-C380A386AF23}" name="Table1" displayName="Table1" ref="A7:D206" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A7:D206" xr:uid="{7E64A17B-DD19-41A2-A532-FEC5D64D35B0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8FD59566-1D0F-410B-9C34-703FB3717CE3}" name="First Name" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D030B583-CE4E-45CE-B8D4-DF27A49C1888}" name="Last Name" dataDxfId="2"/>
@@ -704,646 +850,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D77121A-0C66-4BDD-B366-91D1DD5AF4AB}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.73046875" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="2"/>
+    <col min="4" max="4" width="16.59765625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.06640625" style="2"/>
+    <col min="9" max="9" width="25.86328125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="2"/>
+    <col min="11" max="11" width="9.06640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="F7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="7"/>
+      <c r="F8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="7"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="7"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D21" s="7"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D23" s="7"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D24" s="7"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D25" s="7"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D26" s="7"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D27" s="7"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D33" s="7"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D35" s="7"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D36" s="7"/>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D37" s="7"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D38" s="7"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D39" s="7"/>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D41" s="7"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D42" s="7"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D43" s="7"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D44" s="7"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D49" s="7"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D50" s="7"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D51" s="7"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D52" s="7"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D53" s="7"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D54" s="7"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D55" s="7"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D56" s="7"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D57" s="7"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D59" s="7"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D60" s="7"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D61" s="7"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D62" s="7"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D63" s="7"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D64" s="7"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D65" s="7"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D66" s="7"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D67" s="7"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D68" s="7"/>
+      <c r="D68" s="6"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D69" s="7"/>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D70" s="7"/>
+      <c r="D70" s="6"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D71" s="7"/>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D72" s="7"/>
+      <c r="D72" s="6"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D73" s="7"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D74" s="7"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D75" s="7"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D76" s="7"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D77" s="7"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D78" s="7"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D79" s="7"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D80" s="7"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D81" s="7"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D82" s="7"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D83" s="7"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D84" s="7"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D85" s="7"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D86" s="7"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D87" s="7"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D88" s="7"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D89" s="7"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D90" s="7"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D91" s="7"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D92" s="7"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D93" s="7"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D94" s="7"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D95" s="7"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D96" s="7"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D97" s="7"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D98" s="7"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="7"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D100" s="7"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D101" s="7"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D102" s="7"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D103" s="7"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D104" s="7"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D105" s="7"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D106" s="7"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D107" s="7"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D108" s="7"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D109" s="7"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D110" s="7"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D111" s="7"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D112" s="7"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D113" s="7"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D114" s="7"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D115" s="7"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D116" s="7"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D117" s="7"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D118" s="7"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D119" s="7"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D120" s="7"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D121" s="7"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D122" s="7"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D123" s="7"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D124" s="7"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D125" s="7"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D126" s="7"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D127" s="7"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D128" s="7"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D129" s="7"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D130" s="7"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D131" s="7"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D132" s="7"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D133" s="7"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D134" s="7"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D135" s="7"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D136" s="7"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D137" s="7"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D138" s="7"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D139" s="7"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D140" s="7"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D141" s="7"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D142" s="7"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D143" s="7"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D144" s="7"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D145" s="7"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D146" s="7"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D147" s="7"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D148" s="7"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D149" s="7"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D150" s="7"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D151" s="7"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D152" s="7"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D153" s="7"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D154" s="7"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D155" s="7"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D156" s="7"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D157" s="7"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D158" s="7"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D159" s="7"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D160" s="7"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D161" s="7"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D162" s="7"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D163" s="7"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D164" s="7"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D165" s="7"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D166" s="7"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D167" s="7"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D168" s="7"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D169" s="7"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D170" s="7"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D171" s="7"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D172" s="7"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D173" s="7"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D174" s="7"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D175" s="7"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D176" s="7"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D177" s="7"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D178" s="7"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D179" s="7"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D180" s="7"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D181" s="7"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D182" s="7"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D183" s="7"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D184" s="7"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D185" s="7"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D186" s="7"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D187" s="7"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D188" s="7"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D189" s="7"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D190" s="7"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D191" s="7"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D192" s="7"/>
+      <c r="D192" s="6"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D193" s="7"/>
+      <c r="D193" s="6"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D194" s="7"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D195" s="7"/>
+      <c r="D195" s="6"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D196" s="7"/>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D197" s="7"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D198" s="7"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D199" s="7"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D200" s="7"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D206" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9DAE8F6D-5C62-47AB-A6C9-AC2AC65EED6C}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{9DAE8F6D-5C62-47AB-A6C9-AC2AC65EED6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
